--- a/biology/Botanique/Drosera_binata/Drosera_binata.xlsx
+++ b/biology/Botanique/Drosera_binata/Drosera_binata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drosera binata est une espèce de plantes à fleurs de la famille des Droseracées.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est commune sur la côte est et sud-est de l'Australie et se trouve quelquefois en Tasmanie et en Nouvelle-Zélande. Cette plante pousse en tourbières ou dans des landes humides et en général dans un climat subtropical.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace, terrestre, herbacée, robuste dont il existe plusieurs formes et variétés. Sa taille varie entre 30 et 50 cm de hauteur.
 Feuilles : Elles se divisent en deux parties donnant à la feuille la forme d'un Y. Seule cette dernière partie, le limbe porte des poils munis de glandes qui produisent des gouttelettes gluantes. Le pétiole est lisse et ne comporte pas de poils glanduleux. Les nouvelles feuilles forment, au démarrage, une fronde comparable à celle des fougères. La feuille se déroule complètement lorsqu'elle a atteint sa taille adulte. Avec un bon ensoleillement, l'extrémité des feuilles prend une teinte rougeâtre.
@@ -576,7 +592,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faudra utiliser un pot de 13 cm au minimum si l'on veut avoir une belle plante.
 Les rempotages auront lieu au printemps ou au début de l'été. Cette plante robuste peut subir de courtes périodes de gel, une fois bien installée.
@@ -615,7 +633,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Par semis : Bien que les Drosera binata fleurissent abondamment, il n'est pas très facile d'obtenir des graines, contrairement aux autres Drosera. J'ai essayé à plusieurs reprises de polliniser manuellement des fleurs, mais sans succès jusqu'à ce jour.
 Toutefois si l'on obtient des graines, on ne les sèmera pas tout de suite. On les fera hiverner dans le bas d'un réfrigérateur pour les semer au printemps. Les graines très fines, ne seront pratiquement pas enterrées. Elles lèveront sans problème au bout d'environ trois semaines. On utilisera un compost composé de tourbe et de sable.
@@ -654,7 +674,9 @@
           <t>Observations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La particularité de ce drosera est d'avoir des feuilles fourchues. Il en existe plusieurs variétés selon le nombre de divisions. C'est une plante assez grande qui peut avoir des feuilles de 25 cm de long et de robustes racines: un grand et profond pot est ici très recommandé (18 cm au moins).
 D'aspect frêle, plusieurs plantes par pot auront meilleure allure qu'une seule.
